--- a/results.xlsx
+++ b/results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irving\PyCharm Projects\Talking Tom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEEFA8E5-1C74-4509-95C1-6E7A8D70A9EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85E0CB8-CB2A-4737-9BE1-A84AD01E47CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{091461B6-E852-4101-9A98-402C3D224209}"/>
   </bookViews>
@@ -23,20 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="27">
   <si>
     <t>Clases</t>
   </si>
@@ -117,9 +109,6 @@
   </si>
   <si>
     <t>Palanca</t>
-  </si>
-  <si>
-    <t>ada</t>
   </si>
 </sst>
 </file>
@@ -177,7 +166,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -185,101 +174,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFB40000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFB40000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFB40000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFB40000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFB40000"/>
-      </font>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -662,15 +564,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3DA52D1-4EA5-406F-A641-147830F62353}">
-  <dimension ref="A1:V53"/>
+  <dimension ref="A1:U53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="U55" sqref="U55"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R56" sqref="R56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="16" width="11.77734375" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" customWidth="1"/>
+    <col min="3" max="9" width="0" hidden="1" customWidth="1"/>
+    <col min="10" max="15" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -1581,7 +1485,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>11</v>
       </c>
@@ -1604,7 +1508,7 @@
         <v>0.92452830188679203</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C34" s="3">
         <f>AVERAGE(C22:C33)</f>
         <v>0.62269027756101758</v>
@@ -1626,7 +1530,7 @@
         <v>0.64117961629455023</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C35" s="3">
         <f t="shared" ref="C35:G35" si="2">SUMPRODUCT(C22:C33,$K$4:$K$15)</f>
         <v>0.68818043277907504</v>
@@ -1648,7 +1552,7 @@
         <v>0.68283188942530815</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>26</v>
       </c>
@@ -1660,7 +1564,7 @@
       </c>
       <c r="K37" s="6"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>0</v>
       </c>
@@ -1691,7 +1595,7 @@
       <c r="L39" t="s">
         <v>3</v>
       </c>
-      <c r="M39" s="8" t="s">
+      <c r="M39" t="s">
         <v>4</v>
       </c>
       <c r="N39" t="s">
@@ -1700,23 +1604,20 @@
       <c r="O39" t="s">
         <v>21</v>
       </c>
-      <c r="P39" t="s">
-        <v>27</v>
+      <c r="R39" t="s">
+        <v>2</v>
       </c>
       <c r="S39" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T39" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U39" t="s">
-        <v>4</v>
-      </c>
-      <c r="V39" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>0</v>
       </c>
@@ -1750,7 +1651,7 @@
       <c r="L40" s="1">
         <v>0.83185840707964598</v>
       </c>
-      <c r="M40" s="9">
+      <c r="M40" s="8">
         <v>0.86283185840707899</v>
       </c>
       <c r="N40" s="1">
@@ -1759,26 +1660,23 @@
       <c r="O40" s="1">
         <v>0.81858407079646001</v>
       </c>
-      <c r="P40" s="1">
-        <v>0.80088495575221197</v>
-      </c>
-      <c r="R40">
+      <c r="Q40">
         <v>4</v>
       </c>
+      <c r="R40" s="1">
+        <v>0.79646017699115002</v>
+      </c>
       <c r="S40" s="1">
-        <v>0.79646017699115002</v>
+        <v>0.840707964601769</v>
       </c>
       <c r="T40" s="1">
-        <v>0.840707964601769</v>
+        <v>0.86283185840707899</v>
       </c>
       <c r="U40" s="1">
-        <v>0.86283185840707899</v>
-      </c>
-      <c r="V40" s="1">
         <v>0.77876106194690198</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1</v>
       </c>
@@ -1812,7 +1710,7 @@
       <c r="L41" s="1">
         <v>0.54166666666666596</v>
       </c>
-      <c r="M41" s="9">
+      <c r="M41" s="8">
         <v>0.70833333333333304</v>
       </c>
       <c r="N41" s="1">
@@ -1821,26 +1719,23 @@
       <c r="O41" s="1">
         <v>0.54166666666666596</v>
       </c>
-      <c r="P41" s="1">
-        <v>0.41666666666666602</v>
-      </c>
-      <c r="R41">
+      <c r="Q41">
         <v>5</v>
       </c>
+      <c r="R41" s="1">
+        <v>0.70833333333333304</v>
+      </c>
       <c r="S41" s="1">
-        <v>0.70833333333333304</v>
+        <v>0.54166666666666596</v>
       </c>
       <c r="T41" s="1">
-        <v>0.54166666666666596</v>
+        <v>0.66666666666666596</v>
       </c>
       <c r="U41" s="1">
-        <v>0.66666666666666596</v>
-      </c>
-      <c r="V41" s="1">
         <v>0.625</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2</v>
       </c>
@@ -1874,7 +1769,7 @@
       <c r="L42" s="1">
         <v>0.93357933579335795</v>
       </c>
-      <c r="M42" s="9">
+      <c r="M42" s="8">
         <v>0.90774907749077405</v>
       </c>
       <c r="N42" s="1">
@@ -1883,26 +1778,23 @@
       <c r="O42" s="1">
         <v>0.93357933579335795</v>
       </c>
-      <c r="P42" s="1">
-        <v>0.93911439114391104</v>
-      </c>
-      <c r="R42">
+      <c r="Q42">
         <v>11</v>
       </c>
+      <c r="R42" s="1">
+        <v>0.85793357933579295</v>
+      </c>
       <c r="S42" s="1">
-        <v>0.85793357933579295</v>
+        <v>0.94280442804428</v>
       </c>
       <c r="T42" s="1">
-        <v>0.94280442804428</v>
+        <v>0.90590405904059002</v>
       </c>
       <c r="U42" s="1">
-        <v>0.90590405904059002</v>
-      </c>
-      <c r="V42" s="1">
         <v>0.94095940959409596</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>3</v>
       </c>
@@ -1936,7 +1828,7 @@
       <c r="L43" s="1">
         <v>0.94630872483221395</v>
       </c>
-      <c r="M43" s="9">
+      <c r="M43" s="8">
         <v>0.94630872483221395</v>
       </c>
       <c r="N43" s="1">
@@ -1945,26 +1837,23 @@
       <c r="O43" s="1">
         <v>0.932885906040268</v>
       </c>
-      <c r="P43" s="1">
+      <c r="Q43">
+        <v>2</v>
+      </c>
+      <c r="R43" s="1">
+        <v>0.87248322147651003</v>
+      </c>
+      <c r="S43" s="1">
+        <v>0.94630872483221395</v>
+      </c>
+      <c r="T43" s="1">
+        <v>0.95302013422818699</v>
+      </c>
+      <c r="U43" s="1">
         <v>0.93959731543624103</v>
       </c>
-      <c r="R43">
-        <v>2</v>
-      </c>
-      <c r="S43" s="1">
-        <v>0.87248322147651003</v>
-      </c>
-      <c r="T43" s="1">
-        <v>0.94630872483221395</v>
-      </c>
-      <c r="U43" s="1">
-        <v>0.95302013422818699</v>
-      </c>
-      <c r="V43" s="1">
-        <v>0.93959731543624103</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>4</v>
       </c>
@@ -1998,7 +1887,7 @@
       <c r="L44" s="1">
         <v>0.25</v>
       </c>
-      <c r="M44" s="9">
+      <c r="M44" s="8">
         <v>0.25</v>
       </c>
       <c r="N44" s="1">
@@ -2007,26 +1896,23 @@
       <c r="O44" s="1">
         <v>0.5</v>
       </c>
-      <c r="P44" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="R44">
+      <c r="Q44">
         <v>8</v>
       </c>
+      <c r="R44" s="1">
+        <v>1</v>
+      </c>
       <c r="S44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T44" s="1">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="U44" s="1">
         <v>0.75</v>
       </c>
-      <c r="V44" s="1">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>5</v>
       </c>
@@ -2060,7 +1946,7 @@
       <c r="L45" s="1">
         <v>0.68125000000000002</v>
       </c>
-      <c r="M45" s="9">
+      <c r="M45" s="8">
         <v>0.72499999999999998</v>
       </c>
       <c r="N45" s="1">
@@ -2069,26 +1955,23 @@
       <c r="O45" s="1">
         <v>0.71250000000000002</v>
       </c>
-      <c r="P45" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="R45">
+      <c r="Q45">
         <v>0</v>
       </c>
+      <c r="R45" s="1">
+        <v>0.46875</v>
+      </c>
       <c r="S45" s="1">
-        <v>0.46875</v>
+        <v>0.66874999999999996</v>
       </c>
       <c r="T45" s="1">
-        <v>0.66874999999999996</v>
+        <v>0.70625000000000004</v>
       </c>
       <c r="U45" s="1">
-        <v>0.70625000000000004</v>
-      </c>
-      <c r="V45" s="1">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>6</v>
       </c>
@@ -2122,7 +2005,7 @@
       <c r="L46" s="1">
         <v>0.85185185185185097</v>
       </c>
-      <c r="M46" s="9">
+      <c r="M46" s="8">
         <v>0.85185185185185097</v>
       </c>
       <c r="N46" s="1">
@@ -2131,26 +2014,23 @@
       <c r="O46" s="1">
         <v>0.407407407407407</v>
       </c>
-      <c r="P46" s="1">
+      <c r="Q46">
+        <v>1</v>
+      </c>
+      <c r="R46" s="1">
+        <v>0.96296296296296202</v>
+      </c>
+      <c r="S46" s="1">
+        <v>0.77777777777777701</v>
+      </c>
+      <c r="T46" s="1">
         <v>0.88888888888888795</v>
       </c>
-      <c r="R46">
-        <v>1</v>
-      </c>
-      <c r="S46" s="1">
-        <v>0.96296296296296202</v>
-      </c>
-      <c r="T46" s="1">
-        <v>0.77777777777777701</v>
-      </c>
       <c r="U46" s="1">
-        <v>0.88888888888888795</v>
-      </c>
-      <c r="V46" s="1">
         <v>0.81481481481481399</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>7</v>
       </c>
@@ -2184,7 +2064,7 @@
       <c r="L47" s="1">
         <v>0.73</v>
       </c>
-      <c r="M47" s="9">
+      <c r="M47" s="8">
         <v>0.82</v>
       </c>
       <c r="N47" s="1">
@@ -2193,26 +2073,23 @@
       <c r="O47" s="1">
         <v>0.79</v>
       </c>
-      <c r="P47" s="1">
-        <v>0.68</v>
-      </c>
-      <c r="R47">
+      <c r="Q47">
         <v>9</v>
       </c>
+      <c r="R47" s="1">
+        <v>0.31</v>
+      </c>
       <c r="S47" s="1">
-        <v>0.31</v>
+        <v>0.69</v>
       </c>
       <c r="T47" s="1">
-        <v>0.69</v>
+        <v>0.83</v>
       </c>
       <c r="U47" s="1">
-        <v>0.83</v>
-      </c>
-      <c r="V47" s="1">
         <v>0.65</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>8</v>
       </c>
@@ -2246,7 +2123,7 @@
       <c r="L48" s="1">
         <v>0.87295081967213095</v>
       </c>
-      <c r="M48" s="9">
+      <c r="M48" s="8">
         <v>0.87704918032786805</v>
       </c>
       <c r="N48" s="1">
@@ -2255,26 +2132,23 @@
       <c r="O48" s="1">
         <v>0.90573770491803196</v>
       </c>
-      <c r="P48" s="1">
-        <v>0.80327868852458995</v>
-      </c>
-      <c r="R48">
+      <c r="Q48">
         <v>7</v>
       </c>
+      <c r="R48" s="1">
+        <v>0.62704918032786805</v>
+      </c>
       <c r="S48" s="1">
-        <v>0.62704918032786805</v>
+        <v>0.88114754098360604</v>
       </c>
       <c r="T48" s="1">
-        <v>0.88114754098360604</v>
+        <v>0.87704918032786805</v>
       </c>
       <c r="U48" s="1">
-        <v>0.87704918032786805</v>
-      </c>
-      <c r="V48" s="1">
         <v>0.75819672131147497</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>9</v>
       </c>
@@ -2308,7 +2182,7 @@
       <c r="L49" s="1">
         <v>0.92592592592592504</v>
       </c>
-      <c r="M49" s="9">
+      <c r="M49" s="8">
         <v>0.91358024691357997</v>
       </c>
       <c r="N49" s="1">
@@ -2317,26 +2191,23 @@
       <c r="O49" s="1">
         <v>0.87654320987654299</v>
       </c>
-      <c r="P49" s="1">
+      <c r="Q49">
+        <v>3</v>
+      </c>
+      <c r="R49" s="1">
+        <v>0.77777777777777701</v>
+      </c>
+      <c r="S49" s="1">
+        <v>0.88888888888888795</v>
+      </c>
+      <c r="T49" s="1">
+        <v>0.91358024691357997</v>
+      </c>
+      <c r="U49" s="1">
         <v>0.81481481481481399</v>
       </c>
-      <c r="R49">
-        <v>3</v>
-      </c>
-      <c r="S49" s="1">
-        <v>0.77777777777777701</v>
-      </c>
-      <c r="T49" s="1">
-        <v>0.88888888888888795</v>
-      </c>
-      <c r="U49" s="1">
-        <v>0.91358024691357997</v>
-      </c>
-      <c r="V49" s="1">
-        <v>0.81481481481481399</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>10</v>
       </c>
@@ -2370,7 +2241,7 @@
       <c r="L50" s="1">
         <v>0.44827586206896503</v>
       </c>
-      <c r="M50" s="9">
+      <c r="M50" s="8">
         <v>0.68965517241379304</v>
       </c>
       <c r="N50" s="1">
@@ -2379,26 +2250,23 @@
       <c r="O50" s="1">
         <v>0.65517241379310298</v>
       </c>
-      <c r="P50" s="1">
-        <v>0.34482758620689602</v>
-      </c>
-      <c r="R50">
+      <c r="Q50">
         <v>6</v>
       </c>
+      <c r="R50" s="1">
+        <v>0.75862068965517204</v>
+      </c>
       <c r="S50" s="1">
-        <v>0.75862068965517204</v>
+        <v>0.51724137931034397</v>
       </c>
       <c r="T50" s="1">
-        <v>0.51724137931034397</v>
+        <v>0.72413793103448199</v>
       </c>
       <c r="U50" s="1">
-        <v>0.72413793103448199</v>
-      </c>
-      <c r="V50" s="1">
         <v>0.44827586206896503</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>11</v>
       </c>
@@ -2432,7 +2300,7 @@
       <c r="L51" s="1">
         <v>0.89705882352941102</v>
       </c>
-      <c r="M51" s="9">
+      <c r="M51" s="8">
         <v>0.88235294117647001</v>
       </c>
       <c r="N51" s="1">
@@ -2441,26 +2309,23 @@
       <c r="O51" s="1">
         <v>0.88235294117647001</v>
       </c>
-      <c r="P51" s="1">
+      <c r="Q51">
+        <v>10</v>
+      </c>
+      <c r="R51" s="1">
+        <v>0.76470588235294101</v>
+      </c>
+      <c r="S51" s="1">
         <v>0.88235294117647001</v>
       </c>
-      <c r="R51">
-        <v>10</v>
-      </c>
-      <c r="S51" s="1">
-        <v>0.76470588235294101</v>
-      </c>
       <c r="T51" s="1">
+        <v>0.86764705882352899</v>
+      </c>
+      <c r="U51" s="1">
         <v>0.88235294117647001</v>
       </c>
-      <c r="U51" s="1">
-        <v>0.86764705882352899</v>
-      </c>
-      <c r="V51" s="1">
-        <v>0.88235294117647001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C52" s="3">
         <f>AVERAGE(C40:C51)</f>
         <v>0.77043405525595343</v>
@@ -2497,7 +2362,7 @@
         <f t="shared" si="4"/>
         <v>0.74256053478501383</v>
       </c>
-      <c r="M52" s="10">
+      <c r="M52" s="3">
         <f t="shared" si="4"/>
         <v>0.78622603222891341</v>
       </c>
@@ -2506,31 +2371,27 @@
         <v>0.66503278426777601</v>
       </c>
       <c r="O52" s="3">
-        <f>AVERAGE(P40:P51)</f>
-        <v>0.70086885405089061</v>
-      </c>
-      <c r="P52" s="3">
         <f>AVERAGE(O40:O51)</f>
         <v>0.74636913803902549</v>
       </c>
-      <c r="S52" s="10">
-        <f t="shared" ref="S52:T52" si="5">AVERAGE(S40:S51)</f>
+      <c r="R52" s="2">
+        <f t="shared" ref="R52:S52" si="5">AVERAGE(R40:R51)</f>
         <v>0.74208973368445863</v>
       </c>
-      <c r="T52" s="10">
+      <c r="S52" s="2">
         <f t="shared" si="5"/>
         <v>0.71480385935683455</v>
       </c>
-      <c r="U52" s="10">
-        <f t="shared" ref="U52:V52" si="6">AVERAGE(U40:U51)</f>
+      <c r="T52" s="2">
+        <f t="shared" ref="T52:U52" si="6">AVERAGE(T40:T51)</f>
         <v>0.82883133536090581</v>
       </c>
-      <c r="V52" s="10">
+      <c r="U52" s="2">
         <f t="shared" si="6"/>
         <v>0.74606441176364802</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C53" s="3">
         <f>SUMPRODUCT(C40:C51,$K$4:$K$15)</f>
         <v>0.80437201719045848</v>
@@ -2567,7 +2428,7 @@
         <f t="shared" si="8"/>
         <v>0.75818621451909851</v>
       </c>
-      <c r="M53" s="10">
+      <c r="M53" s="3">
         <f t="shared" si="8"/>
         <v>0.79652175090086796</v>
       </c>
@@ -2576,67 +2437,55 @@
         <v>0.71053697945818151</v>
       </c>
       <c r="O53" s="3">
-        <f>SUMPRODUCT(P40:P51,$K$4:$K$15)</f>
-        <v>0.72410339058307283</v>
-      </c>
-      <c r="P53" s="3">
         <f>SUMPRODUCT(O40:O51,$K$4:$K$15)</f>
         <v>0.75724669469983241</v>
       </c>
-      <c r="S53" s="10">
-        <f t="shared" ref="S53:T53" si="9">SUMPRODUCT(S40:S51,$K$4:$K$15)</f>
+      <c r="R53" s="2">
+        <f t="shared" ref="R53:S53" si="9">SUMPRODUCT(R40:R51,$K$4:$K$15)</f>
         <v>0.78502959701379427</v>
       </c>
-      <c r="T53" s="10">
+      <c r="S53" s="2">
         <f t="shared" si="9"/>
         <v>0.73758240864787028</v>
       </c>
-      <c r="U53" s="10">
-        <f t="shared" ref="U53:V53" si="10">SUMPRODUCT(U40:U51,$K$4:$K$15)</f>
+      <c r="T53" s="2">
+        <f t="shared" ref="T53:U53" si="10">SUMPRODUCT(T40:T51,$K$4:$K$15)</f>
         <v>0.83193634367135094</v>
       </c>
-      <c r="V53" s="10">
+      <c r="U53" s="2">
         <f t="shared" si="10"/>
         <v>0.77510621196365848</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:G4 J5">
-    <cfRule type="cellIs" dxfId="16" priority="52" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="52" operator="greaterThan">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40:G51">
-    <cfRule type="cellIs" dxfId="15" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="50" operator="greaterThan">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40:H51">
-    <cfRule type="cellIs" dxfId="14" priority="47" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="47" operator="greaterThan">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:G33">
-    <cfRule type="cellIs" dxfId="13" priority="43" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="43" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:G15">
-    <cfRule type="cellIs" dxfId="12" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="42" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J40:P51">
-    <cfRule type="expression" dxfId="11" priority="11">
-      <formula>J40&gt;=LARGE($J40:$P40,2)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="41" operator="greaterThan">
-      <formula>0.8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S40:V51">
+  <conditionalFormatting sqref="R40:U51 J40:O51">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>S40&gt;=LARGE($J40:$P40,2)</formula>
+      <formula>J40&gt;=LARGE($J40:$O40,2)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>0.8</formula>
